--- a/Output/1988/Kansas/Kansas.xlsx
+++ b/Output/1988/Kansas/Kansas.xlsx
@@ -569,9 +569,6 @@
     <t>FAIRWAY</t>
   </si>
   <si>
-    <t>See OVERLAND PARK, KS.</t>
-  </si>
-  <si>
     <t>FINNEY COUNTY</t>
   </si>
   <si>
@@ -1185,9 +1182,6 @@
   </si>
   <si>
     <t>PARK CITY</t>
-  </si>
-  <si>
-    <t>See NEWTON, KS.</t>
   </si>
   <si>
     <t>See also WICHITA, KS</t>
@@ -1565,6 +1559,14 @@
   </si>
   <si>
     <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See OVERLAND PARK, KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See NEWTON, KS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1946,7 +1948,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2026,7 +2028,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2100,7 +2102,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -2174,7 +2176,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -2248,7 +2250,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -2322,7 +2324,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -2396,7 +2398,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -2470,7 +2472,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -2544,7 +2546,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -2618,7 +2620,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
@@ -2692,7 +2694,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
@@ -2766,7 +2768,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -2840,7 +2842,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -2914,7 +2916,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
@@ -2988,7 +2990,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
@@ -3062,7 +3064,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
@@ -3136,7 +3138,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
@@ -3210,7 +3212,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -3284,7 +3286,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
@@ -3358,7 +3360,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -3432,7 +3434,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -3506,7 +3508,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -3580,7 +3582,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -3654,7 +3656,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
@@ -3728,7 +3730,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -3802,7 +3804,7 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -3876,7 +3878,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
@@ -3950,7 +3952,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -4024,7 +4026,7 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B29" t="s">
         <v>68</v>
@@ -4098,7 +4100,7 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B30" t="s">
         <v>69</v>
@@ -4172,7 +4174,7 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B31" t="s">
         <v>70</v>
@@ -4246,7 +4248,7 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -4323,7 +4325,7 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
@@ -4397,7 +4399,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B34" t="s">
         <v>76</v>
@@ -4471,7 +4473,7 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -4545,7 +4547,7 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B36" t="s">
         <v>81</v>
@@ -4619,7 +4621,7 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B37" t="s">
         <v>82</v>
@@ -4693,7 +4695,7 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
@@ -4767,7 +4769,7 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
@@ -4841,7 +4843,7 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B40" t="s">
         <v>86</v>
@@ -4915,7 +4917,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B41" t="s">
         <v>87</v>
@@ -4989,7 +4991,7 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B42" t="s">
         <v>88</v>
@@ -5063,7 +5065,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B43" t="s">
         <v>89</v>
@@ -5137,7 +5139,7 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B44" t="s">
         <v>90</v>
@@ -5211,7 +5213,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B45" t="s">
         <v>91</v>
@@ -5285,7 +5287,7 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B46" t="s">
         <v>96</v>
@@ -5359,7 +5361,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B47" t="s">
         <v>97</v>
@@ -5433,7 +5435,7 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B48" t="s">
         <v>98</v>
@@ -5507,7 +5509,7 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B49" t="s">
         <v>99</v>
@@ -5581,7 +5583,7 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B50" t="s">
         <v>100</v>
@@ -5655,7 +5657,7 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
@@ -5729,7 +5731,7 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B52" t="s">
         <v>102</v>
@@ -5803,7 +5805,7 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B53" t="s">
         <v>103</v>
@@ -5877,7 +5879,7 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
@@ -5951,7 +5953,7 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B55" t="s">
         <v>104</v>
@@ -6025,7 +6027,7 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B56" t="s">
         <v>105</v>
@@ -6099,10 +6101,10 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B57" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -6173,7 +6175,7 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B58" t="s">
         <v>106</v>
@@ -6247,7 +6249,7 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B59" t="s">
         <v>107</v>
@@ -6321,7 +6323,7 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B60" t="s">
         <v>108</v>
@@ -6390,12 +6392,12 @@
         <v>2</v>
       </c>
       <c r="Y60" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B61" t="s">
         <v>110</v>
@@ -6469,7 +6471,7 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B62" t="s">
         <v>113</v>
@@ -6543,7 +6545,7 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B63" t="s">
         <v>114</v>
@@ -6617,7 +6619,7 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B64" t="s">
         <v>119</v>
@@ -6691,7 +6693,7 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B65" t="s">
         <v>120</v>
@@ -6765,7 +6767,7 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B66" t="s">
         <v>121</v>
@@ -6839,7 +6841,7 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B67" t="s">
         <v>122</v>
@@ -6913,7 +6915,7 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B68" t="s">
         <v>123</v>
@@ -6987,7 +6989,7 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B69" t="s">
         <v>124</v>
@@ -7061,7 +7063,7 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B70" t="s">
         <v>125</v>
@@ -7135,7 +7137,7 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B71" t="s">
         <v>126</v>
@@ -7209,7 +7211,7 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B72" t="s">
         <v>127</v>
@@ -7283,7 +7285,7 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B73" t="s">
         <v>128</v>
@@ -7357,7 +7359,7 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B74" t="s">
         <v>129</v>
@@ -7431,7 +7433,7 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B75" t="s">
         <v>132</v>
@@ -7505,7 +7507,7 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B76" t="s">
         <v>135</v>
@@ -7579,7 +7581,7 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B77" t="s">
         <v>137</v>
@@ -7653,7 +7655,7 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B78" t="s">
         <v>138</v>
@@ -7727,7 +7729,7 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B79" t="s">
         <v>139</v>
@@ -7801,7 +7803,7 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B80" t="s">
         <v>140</v>
@@ -7875,7 +7877,7 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B81" t="s">
         <v>143</v>
@@ -7949,7 +7951,7 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B82" t="s">
         <v>146</v>
@@ -8023,7 +8025,7 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B83" t="s">
         <v>147</v>
@@ -8097,7 +8099,7 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B84" t="s">
         <v>150</v>
@@ -8171,7 +8173,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B85" t="s">
         <v>151</v>
@@ -8245,7 +8247,7 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B86" t="s">
         <v>152</v>
@@ -8319,7 +8321,7 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B87" t="s">
         <v>153</v>
@@ -8393,7 +8395,7 @@
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B88" t="s">
         <v>154</v>
@@ -8467,7 +8469,7 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B89" t="s">
         <v>156</v>
@@ -8541,7 +8543,7 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B90" t="s">
         <v>159</v>
@@ -8615,7 +8617,7 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B91" t="s">
         <v>160</v>
@@ -8689,7 +8691,7 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B92" t="s">
         <v>162</v>
@@ -8763,7 +8765,7 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B93" t="s">
         <v>163</v>
@@ -8837,7 +8839,7 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B94" t="s">
         <v>164</v>
@@ -8911,7 +8913,7 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B95" t="s">
         <v>167</v>
@@ -8985,7 +8987,7 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B96" t="s">
         <v>168</v>
@@ -9059,7 +9061,7 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B97" t="s">
         <v>169</v>
@@ -9133,7 +9135,7 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B98" t="s">
         <v>170</v>
@@ -9207,7 +9209,7 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B99" t="s">
         <v>171</v>
@@ -9281,7 +9283,7 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B100" t="s">
         <v>172</v>
@@ -9355,7 +9357,7 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B101" t="s">
         <v>173</v>
@@ -9429,7 +9431,7 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B102" t="s">
         <v>174</v>
@@ -9503,7 +9505,7 @@
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B103" t="s">
         <v>175</v>
@@ -9577,7 +9579,7 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B104" t="s">
         <v>178</v>
@@ -9651,10 +9653,10 @@
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -9725,10 +9727,10 @@
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -9799,10 +9801,10 @@
     </row>
     <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -9873,10 +9875,10 @@
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -9947,10 +9949,10 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -10021,10 +10023,10 @@
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -10095,10 +10097,10 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B111" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -10169,10 +10171,10 @@
     </row>
     <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -10243,10 +10245,10 @@
     </row>
     <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B113" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -10317,10 +10319,10 @@
     </row>
     <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B114" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -10391,10 +10393,10 @@
     </row>
     <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -10465,10 +10467,10 @@
     </row>
     <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -10539,10 +10541,10 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B117" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -10613,10 +10615,10 @@
     </row>
     <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -10687,10 +10689,10 @@
     </row>
     <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -10761,10 +10763,10 @@
     </row>
     <row r="120" spans="1:25">
       <c r="A120" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -10835,10 +10837,10 @@
     </row>
     <row r="121" spans="1:25">
       <c r="A121" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -10909,10 +10911,10 @@
     </row>
     <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B122" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -10983,10 +10985,10 @@
     </row>
     <row r="123" spans="1:25">
       <c r="A123" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B123" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -11057,10 +11059,10 @@
     </row>
     <row r="124" spans="1:25">
       <c r="A124" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -11131,10 +11133,10 @@
     </row>
     <row r="125" spans="1:25">
       <c r="A125" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -11205,10 +11207,10 @@
     </row>
     <row r="126" spans="1:25">
       <c r="A126" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -11279,10 +11281,10 @@
     </row>
     <row r="127" spans="1:25">
       <c r="A127" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -11353,10 +11355,10 @@
     </row>
     <row r="128" spans="1:25">
       <c r="A128" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B128" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -11427,10 +11429,10 @@
     </row>
     <row r="129" spans="1:25">
       <c r="A129" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B129" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -11501,10 +11503,10 @@
     </row>
     <row r="130" spans="1:25">
       <c r="A130" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -11575,10 +11577,10 @@
     </row>
     <row r="131" spans="1:25">
       <c r="A131" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -11649,10 +11651,10 @@
     </row>
     <row r="132" spans="1:25">
       <c r="A132" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B132" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -11723,10 +11725,10 @@
     </row>
     <row r="133" spans="1:25">
       <c r="A133" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B133" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -11797,10 +11799,10 @@
     </row>
     <row r="134" spans="1:25">
       <c r="A134" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B134" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -11871,10 +11873,10 @@
     </row>
     <row r="135" spans="1:25">
       <c r="A135" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -11945,10 +11947,10 @@
     </row>
     <row r="136" spans="1:25">
       <c r="A136" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -12019,10 +12021,10 @@
     </row>
     <row r="137" spans="1:25">
       <c r="A137" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -12093,10 +12095,10 @@
     </row>
     <row r="138" spans="1:25">
       <c r="A138" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -12167,10 +12169,10 @@
     </row>
     <row r="139" spans="1:25">
       <c r="A139" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B139" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -12236,15 +12238,15 @@
         <v>11</v>
       </c>
       <c r="Y139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:25">
       <c r="A140" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B140" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -12315,10 +12317,10 @@
     </row>
     <row r="141" spans="1:25">
       <c r="A141" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -12389,10 +12391,10 @@
     </row>
     <row r="142" spans="1:25">
       <c r="A142" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -12463,10 +12465,10 @@
     </row>
     <row r="143" spans="1:25">
       <c r="A143" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B143" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -12537,10 +12539,10 @@
     </row>
     <row r="144" spans="1:25">
       <c r="A144" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B144" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -12611,10 +12613,10 @@
     </row>
     <row r="145" spans="1:25">
       <c r="A145" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B145" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -12685,10 +12687,10 @@
     </row>
     <row r="146" spans="1:25">
       <c r="A146" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B146" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -12759,10 +12761,10 @@
     </row>
     <row r="147" spans="1:25">
       <c r="A147" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B147" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -12833,10 +12835,10 @@
     </row>
     <row r="148" spans="1:25">
       <c r="A148" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B148" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -12907,10 +12909,10 @@
     </row>
     <row r="149" spans="1:25">
       <c r="A149" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B149" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -12981,10 +12983,10 @@
     </row>
     <row r="150" spans="1:25">
       <c r="A150" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B150" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -13055,10 +13057,10 @@
     </row>
     <row r="151" spans="1:25">
       <c r="A151" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B151" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -13129,10 +13131,10 @@
     </row>
     <row r="152" spans="1:25">
       <c r="A152" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B152" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -13203,10 +13205,10 @@
     </row>
     <row r="153" spans="1:25">
       <c r="A153" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B153" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -13277,10 +13279,10 @@
     </row>
     <row r="154" spans="1:25">
       <c r="A154" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B154" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -13351,10 +13353,10 @@
     </row>
     <row r="155" spans="1:25">
       <c r="A155" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B155" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -13425,10 +13427,10 @@
     </row>
     <row r="156" spans="1:25">
       <c r="A156" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B156" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -13499,10 +13501,10 @@
     </row>
     <row r="157" spans="1:25">
       <c r="A157" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B157" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -13573,10 +13575,10 @@
     </row>
     <row r="158" spans="1:25">
       <c r="A158" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B158" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -13647,10 +13649,10 @@
     </row>
     <row r="159" spans="1:25">
       <c r="A159" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B159" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -13721,10 +13723,10 @@
     </row>
     <row r="160" spans="1:25">
       <c r="A160" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B160" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -13795,10 +13797,10 @@
     </row>
     <row r="161" spans="1:25">
       <c r="A161" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B161" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -13869,10 +13871,10 @@
     </row>
     <row r="162" spans="1:25">
       <c r="A162" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B162" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -13943,10 +13945,10 @@
     </row>
     <row r="163" spans="1:25">
       <c r="A163" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B163" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -13958,7 +13960,7 @@
         <v>28932</v>
       </c>
       <c r="G163" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H163" t="s">
         <v>26</v>
@@ -13970,7 +13972,7 @@
         <v>26</v>
       </c>
       <c r="K163" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L163" t="s">
         <v>26</v>
@@ -14000,10 +14002,10 @@
         <v>1</v>
       </c>
       <c r="U163" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V163" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W163">
         <v>35</v>
@@ -14017,10 +14019,10 @@
     </row>
     <row r="164" spans="1:25">
       <c r="A164" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B164" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -14091,10 +14093,10 @@
     </row>
     <row r="165" spans="1:25">
       <c r="A165" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B165" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -14165,10 +14167,10 @@
     </row>
     <row r="166" spans="1:25">
       <c r="A166" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B166" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -14239,10 +14241,10 @@
     </row>
     <row r="167" spans="1:25">
       <c r="A167" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B167" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -14313,10 +14315,10 @@
     </row>
     <row r="168" spans="1:25">
       <c r="A168" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B168" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -14387,10 +14389,10 @@
     </row>
     <row r="169" spans="1:25">
       <c r="A169" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B169" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -14461,10 +14463,10 @@
     </row>
     <row r="170" spans="1:25">
       <c r="A170" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B170" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -14535,10 +14537,10 @@
     </row>
     <row r="171" spans="1:25">
       <c r="A171" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B171" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -14609,10 +14611,10 @@
     </row>
     <row r="172" spans="1:25">
       <c r="A172" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B172" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -14683,10 +14685,10 @@
     </row>
     <row r="173" spans="1:25">
       <c r="A173" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B173" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -14757,10 +14759,10 @@
     </row>
     <row r="174" spans="1:25">
       <c r="A174" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B174" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -14831,10 +14833,10 @@
     </row>
     <row r="175" spans="1:25">
       <c r="A175" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B175" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -14846,7 +14848,7 @@
         <v>26840</v>
       </c>
       <c r="G175" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H175" t="s">
         <v>26</v>
@@ -14888,10 +14890,10 @@
         <v>0</v>
       </c>
       <c r="U175" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V175" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W175">
         <v>35</v>
@@ -14905,10 +14907,10 @@
     </row>
     <row r="176" spans="1:25">
       <c r="A176" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B176" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -14979,10 +14981,10 @@
     </row>
     <row r="177" spans="1:26">
       <c r="A177" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B177" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -15053,10 +15055,10 @@
     </row>
     <row r="178" spans="1:26">
       <c r="A178" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B178" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -15127,10 +15129,10 @@
     </row>
     <row r="179" spans="1:26">
       <c r="A179" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B179" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -15201,10 +15203,10 @@
     </row>
     <row r="180" spans="1:26">
       <c r="A180" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B180" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -15275,10 +15277,10 @@
     </row>
     <row r="181" spans="1:26">
       <c r="A181" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B181" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -15349,10 +15351,10 @@
     </row>
     <row r="182" spans="1:26">
       <c r="A182" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B182" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -15423,10 +15425,10 @@
     </row>
     <row r="183" spans="1:26">
       <c r="A183" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B183" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -15497,10 +15499,10 @@
     </row>
     <row r="184" spans="1:26">
       <c r="A184" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B184" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -15571,10 +15573,10 @@
     </row>
     <row r="185" spans="1:26">
       <c r="A185" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B185" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -15645,10 +15647,10 @@
     </row>
     <row r="186" spans="1:26">
       <c r="A186" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B186" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -15719,10 +15721,10 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B187" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -15796,10 +15798,10 @@
     </row>
     <row r="188" spans="1:26">
       <c r="A188" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B188" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -15870,10 +15872,10 @@
     </row>
     <row r="189" spans="1:26">
       <c r="A189" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B189" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -15944,10 +15946,10 @@
     </row>
     <row r="190" spans="1:26">
       <c r="A190" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B190" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -16018,10 +16020,10 @@
     </row>
     <row r="191" spans="1:26">
       <c r="A191" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B191" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -16092,10 +16094,10 @@
     </row>
     <row r="192" spans="1:26">
       <c r="A192" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B192" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -16166,10 +16168,10 @@
     </row>
     <row r="193" spans="1:25">
       <c r="A193" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B193" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -16240,10 +16242,10 @@
     </row>
     <row r="194" spans="1:25">
       <c r="A194" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B194" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -16314,10 +16316,10 @@
     </row>
     <row r="195" spans="1:25">
       <c r="A195" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B195" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -16388,10 +16390,10 @@
     </row>
     <row r="196" spans="1:25">
       <c r="A196" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -16462,10 +16464,10 @@
     </row>
     <row r="197" spans="1:25">
       <c r="A197" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B197" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -16536,10 +16538,10 @@
     </row>
     <row r="198" spans="1:25">
       <c r="A198" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B198" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -16610,10 +16612,10 @@
     </row>
     <row r="199" spans="1:25">
       <c r="A199" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B199" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -16684,10 +16686,10 @@
     </row>
     <row r="200" spans="1:25">
       <c r="A200" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B200" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -16758,10 +16760,10 @@
     </row>
     <row r="201" spans="1:25">
       <c r="A201" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B201" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -16832,10 +16834,10 @@
     </row>
     <row r="202" spans="1:25">
       <c r="A202" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B202" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -16906,10 +16908,10 @@
     </row>
     <row r="203" spans="1:25">
       <c r="A203" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B203" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -16980,10 +16982,10 @@
     </row>
     <row r="204" spans="1:25">
       <c r="A204" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B204" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -17054,10 +17056,10 @@
     </row>
     <row r="205" spans="1:25">
       <c r="A205" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B205" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -17128,10 +17130,10 @@
     </row>
     <row r="206" spans="1:25">
       <c r="A206" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B206" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -17202,10 +17204,10 @@
     </row>
     <row r="207" spans="1:25">
       <c r="A207" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B207" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -17276,10 +17278,10 @@
     </row>
     <row r="208" spans="1:25">
       <c r="A208" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B208" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -17350,10 +17352,10 @@
     </row>
     <row r="209" spans="1:25">
       <c r="A209" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B209" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -17424,10 +17426,10 @@
     </row>
     <row r="210" spans="1:25">
       <c r="A210" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B210" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -17498,10 +17500,10 @@
     </row>
     <row r="211" spans="1:25">
       <c r="A211" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B211" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -17572,10 +17574,10 @@
     </row>
     <row r="212" spans="1:25">
       <c r="A212" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B212" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -17646,10 +17648,10 @@
     </row>
     <row r="213" spans="1:25">
       <c r="A213" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B213" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -17720,10 +17722,10 @@
     </row>
     <row r="214" spans="1:25">
       <c r="A214" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B214" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -17794,10 +17796,10 @@
     </row>
     <row r="215" spans="1:25">
       <c r="A215" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B215" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -17868,10 +17870,10 @@
     </row>
     <row r="216" spans="1:25">
       <c r="A216" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B216" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -17942,10 +17944,10 @@
     </row>
     <row r="217" spans="1:25">
       <c r="A217" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B217" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -18016,10 +18018,10 @@
     </row>
     <row r="218" spans="1:25">
       <c r="A218" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B218" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -18090,10 +18092,10 @@
     </row>
     <row r="219" spans="1:25">
       <c r="A219" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B219" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -18164,10 +18166,10 @@
     </row>
     <row r="220" spans="1:25">
       <c r="A220" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B220" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -18238,10 +18240,10 @@
     </row>
     <row r="221" spans="1:25">
       <c r="A221" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B221" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -18312,10 +18314,10 @@
     </row>
     <row r="222" spans="1:25">
       <c r="A222" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B222" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -18386,10 +18388,10 @@
     </row>
     <row r="223" spans="1:25">
       <c r="A223" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B223" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -18455,15 +18457,15 @@
         <v>3</v>
       </c>
       <c r="Y223" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="224" spans="1:25">
       <c r="A224" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B224" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -18534,10 +18536,10 @@
     </row>
     <row r="225" spans="1:25">
       <c r="A225" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B225" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -18608,10 +18610,10 @@
     </row>
     <row r="226" spans="1:25">
       <c r="A226" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B226" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -18682,10 +18684,10 @@
     </row>
     <row r="227" spans="1:25">
       <c r="A227" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B227" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -18756,10 +18758,10 @@
     </row>
     <row r="228" spans="1:25">
       <c r="A228" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B228" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -18830,10 +18832,10 @@
     </row>
     <row r="229" spans="1:25">
       <c r="A229" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B229" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -18904,10 +18906,10 @@
     </row>
     <row r="230" spans="1:25">
       <c r="A230" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B230" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -18978,10 +18980,10 @@
     </row>
     <row r="231" spans="1:25">
       <c r="A231" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B231" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -19052,10 +19054,10 @@
     </row>
     <row r="232" spans="1:25">
       <c r="A232" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B232" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -19126,10 +19128,10 @@
     </row>
     <row r="233" spans="1:25">
       <c r="A233" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B233" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -19200,10 +19202,10 @@
     </row>
     <row r="234" spans="1:25">
       <c r="A234" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B234" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -19274,10 +19276,10 @@
     </row>
     <row r="235" spans="1:25">
       <c r="A235" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B235" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -19348,10 +19350,10 @@
     </row>
     <row r="236" spans="1:25">
       <c r="A236" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B236" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -19422,10 +19424,10 @@
     </row>
     <row r="237" spans="1:25">
       <c r="A237" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B237" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -19496,10 +19498,10 @@
     </row>
     <row r="238" spans="1:25">
       <c r="A238" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B238" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -19570,10 +19572,10 @@
     </row>
     <row r="239" spans="1:25">
       <c r="A239" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B239" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -19644,10 +19646,10 @@
     </row>
     <row r="240" spans="1:25">
       <c r="A240" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B240" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -19718,10 +19720,10 @@
     </row>
     <row r="241" spans="1:25">
       <c r="A241" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B241" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -19792,10 +19794,10 @@
     </row>
     <row r="242" spans="1:25">
       <c r="A242" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B242" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -19866,10 +19868,10 @@
     </row>
     <row r="243" spans="1:25">
       <c r="A243" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B243" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -19940,10 +19942,10 @@
     </row>
     <row r="244" spans="1:25">
       <c r="A244" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B244" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -20014,10 +20016,10 @@
     </row>
     <row r="245" spans="1:25">
       <c r="A245" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B245" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -20088,10 +20090,10 @@
     </row>
     <row r="246" spans="1:25">
       <c r="A246" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B246" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -20162,10 +20164,10 @@
     </row>
     <row r="247" spans="1:25">
       <c r="A247" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B247" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -20236,10 +20238,10 @@
     </row>
     <row r="248" spans="1:25">
       <c r="A248" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B248" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -20310,10 +20312,10 @@
     </row>
     <row r="249" spans="1:25">
       <c r="A249" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B249" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -20384,10 +20386,10 @@
     </row>
     <row r="250" spans="1:25">
       <c r="A250" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B250" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -20458,10 +20460,10 @@
     </row>
     <row r="251" spans="1:25">
       <c r="A251" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B251" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -20532,10 +20534,10 @@
     </row>
     <row r="252" spans="1:25">
       <c r="A252" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B252" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -20606,10 +20608,10 @@
     </row>
     <row r="253" spans="1:25">
       <c r="A253" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B253" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -20680,10 +20682,10 @@
     </row>
     <row r="254" spans="1:25">
       <c r="A254" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B254" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -20754,10 +20756,10 @@
     </row>
     <row r="255" spans="1:25">
       <c r="A255" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B255" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -20828,10 +20830,10 @@
     </row>
     <row r="256" spans="1:25">
       <c r="A256" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B256" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -20902,10 +20904,10 @@
     </row>
     <row r="257" spans="1:25">
       <c r="A257" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B257" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -20976,10 +20978,10 @@
     </row>
     <row r="258" spans="1:25">
       <c r="A258" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B258" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -21050,10 +21052,10 @@
     </row>
     <row r="259" spans="1:25">
       <c r="A259" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B259" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -21124,10 +21126,10 @@
     </row>
     <row r="260" spans="1:25">
       <c r="A260" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B260" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -21198,10 +21200,10 @@
     </row>
     <row r="261" spans="1:25">
       <c r="A261" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B261" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -21272,10 +21274,10 @@
     </row>
     <row r="262" spans="1:25">
       <c r="A262" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B262" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -21346,10 +21348,10 @@
     </row>
     <row r="263" spans="1:25">
       <c r="A263" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B263" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -21420,10 +21422,10 @@
     </row>
     <row r="264" spans="1:25">
       <c r="A264" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B264" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -21494,10 +21496,10 @@
     </row>
     <row r="265" spans="1:25">
       <c r="A265" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B265" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -21568,10 +21570,10 @@
     </row>
     <row r="266" spans="1:25">
       <c r="A266" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B266" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -21642,10 +21644,10 @@
     </row>
     <row r="267" spans="1:25">
       <c r="A267" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B267" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -21716,10 +21718,10 @@
     </row>
     <row r="268" spans="1:25">
       <c r="A268" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B268" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -21790,10 +21792,10 @@
     </row>
     <row r="269" spans="1:25">
       <c r="A269" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B269" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -21864,10 +21866,10 @@
     </row>
     <row r="270" spans="1:25">
       <c r="A270" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B270" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -21938,10 +21940,10 @@
     </row>
     <row r="271" spans="1:25">
       <c r="A271" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B271" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -22012,10 +22014,10 @@
     </row>
     <row r="272" spans="1:25">
       <c r="A272" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B272" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -22086,10 +22088,10 @@
     </row>
     <row r="273" spans="1:25">
       <c r="A273" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B273" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -22160,10 +22162,10 @@
     </row>
     <row r="274" spans="1:25">
       <c r="A274" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B274" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -22234,10 +22236,10 @@
     </row>
     <row r="275" spans="1:25">
       <c r="A275" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B275" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -22308,10 +22310,10 @@
     </row>
     <row r="276" spans="1:25">
       <c r="A276" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B276" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -22382,10 +22384,10 @@
     </row>
     <row r="277" spans="1:25">
       <c r="A277" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B277" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -22456,10 +22458,10 @@
     </row>
     <row r="278" spans="1:25">
       <c r="A278" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B278" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -22530,10 +22532,10 @@
     </row>
     <row r="279" spans="1:25">
       <c r="A279" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B279" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -22604,10 +22606,10 @@
     </row>
     <row r="280" spans="1:25">
       <c r="A280" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B280" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -22678,10 +22680,10 @@
     </row>
     <row r="281" spans="1:25">
       <c r="A281" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B281" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -22752,10 +22754,10 @@
     </row>
     <row r="282" spans="1:25">
       <c r="A282" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B282" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -22826,10 +22828,10 @@
     </row>
     <row r="283" spans="1:25">
       <c r="A283" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B283" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -22900,10 +22902,10 @@
     </row>
     <row r="284" spans="1:25">
       <c r="A284" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B284" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -22974,10 +22976,10 @@
     </row>
     <row r="285" spans="1:25">
       <c r="A285" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B285" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -23048,10 +23050,10 @@
     </row>
     <row r="286" spans="1:25">
       <c r="A286" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B286" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -23122,10 +23124,10 @@
     </row>
     <row r="287" spans="1:25">
       <c r="A287" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B287" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -23196,10 +23198,10 @@
     </row>
     <row r="288" spans="1:25">
       <c r="A288" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B288" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -23270,10 +23272,10 @@
     </row>
     <row r="289" spans="1:25">
       <c r="A289" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B289" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -23344,10 +23346,10 @@
     </row>
     <row r="290" spans="1:25">
       <c r="A290" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B290" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -23418,10 +23420,10 @@
     </row>
     <row r="291" spans="1:25">
       <c r="A291" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B291" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -23492,10 +23494,10 @@
     </row>
     <row r="292" spans="1:25">
       <c r="A292" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B292" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -23566,10 +23568,10 @@
     </row>
     <row r="293" spans="1:25">
       <c r="A293" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B293" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -23640,10 +23642,10 @@
     </row>
     <row r="294" spans="1:25">
       <c r="A294" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B294" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -23714,10 +23716,10 @@
     </row>
     <row r="295" spans="1:25">
       <c r="A295" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B295" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -23788,10 +23790,10 @@
     </row>
     <row r="296" spans="1:25">
       <c r="A296" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B296" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -23862,10 +23864,10 @@
     </row>
     <row r="297" spans="1:25">
       <c r="A297" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B297" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -23936,10 +23938,10 @@
     </row>
     <row r="298" spans="1:25">
       <c r="A298" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B298" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -24010,10 +24012,10 @@
     </row>
     <row r="299" spans="1:25">
       <c r="A299" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B299" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -24084,10 +24086,10 @@
     </row>
     <row r="300" spans="1:25">
       <c r="A300" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B300" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -24158,10 +24160,10 @@
     </row>
     <row r="301" spans="1:25">
       <c r="A301" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B301" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -24232,10 +24234,10 @@
     </row>
     <row r="302" spans="1:25">
       <c r="A302" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B302" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -24306,10 +24308,10 @@
     </row>
     <row r="303" spans="1:25">
       <c r="A303" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B303" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -24380,10 +24382,10 @@
     </row>
     <row r="304" spans="1:25">
       <c r="A304" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B304" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -24454,10 +24456,10 @@
     </row>
     <row r="305" spans="1:25">
       <c r="A305" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B305" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -24528,10 +24530,10 @@
     </row>
     <row r="306" spans="1:25">
       <c r="A306" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B306" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -24602,10 +24604,10 @@
     </row>
     <row r="307" spans="1:25">
       <c r="A307" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B307" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -24676,10 +24678,10 @@
     </row>
     <row r="308" spans="1:25">
       <c r="A308" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B308" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -24750,10 +24752,10 @@
     </row>
     <row r="309" spans="1:25">
       <c r="A309" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B309" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -24824,10 +24826,10 @@
     </row>
     <row r="310" spans="1:25">
       <c r="A310" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B310" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -24898,10 +24900,10 @@
     </row>
     <row r="311" spans="1:25">
       <c r="A311" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B311" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -24972,10 +24974,10 @@
     </row>
     <row r="312" spans="1:25">
       <c r="A312" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B312" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -25046,10 +25048,10 @@
     </row>
     <row r="313" spans="1:25">
       <c r="A313" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B313" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -25120,10 +25122,10 @@
     </row>
     <row r="314" spans="1:25">
       <c r="A314" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B314" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -25194,10 +25196,10 @@
     </row>
     <row r="315" spans="1:25">
       <c r="A315" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B315" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -25268,10 +25270,10 @@
     </row>
     <row r="316" spans="1:25">
       <c r="A316" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B316" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -25342,10 +25344,10 @@
     </row>
     <row r="317" spans="1:25">
       <c r="A317" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B317" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -25416,10 +25418,10 @@
     </row>
     <row r="318" spans="1:25">
       <c r="A318" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B318" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -25490,10 +25492,10 @@
     </row>
     <row r="319" spans="1:25">
       <c r="A319" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B319" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -25564,10 +25566,10 @@
     </row>
     <row r="320" spans="1:25">
       <c r="A320" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B320" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -25638,10 +25640,10 @@
     </row>
     <row r="321" spans="1:25">
       <c r="A321" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B321" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -25712,10 +25714,10 @@
     </row>
     <row r="322" spans="1:25">
       <c r="A322" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B322" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -25786,10 +25788,10 @@
     </row>
     <row r="323" spans="1:25">
       <c r="A323" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B323" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -25860,10 +25862,10 @@
     </row>
     <row r="324" spans="1:25">
       <c r="A324" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B324" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -25875,7 +25877,7 @@
         <v>25465</v>
       </c>
       <c r="G324" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H324" t="s">
         <v>26</v>
@@ -25890,10 +25892,10 @@
         <v>29</v>
       </c>
       <c r="L324" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M324" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N324" t="s">
         <v>26</v>
@@ -25917,10 +25919,10 @@
         <v>1</v>
       </c>
       <c r="U324" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V324" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W324">
         <v>30</v>
@@ -25934,10 +25936,10 @@
     </row>
     <row r="325" spans="1:25">
       <c r="A325" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B325" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -26008,10 +26010,10 @@
     </row>
     <row r="326" spans="1:25">
       <c r="A326" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B326" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -26082,7 +26084,7 @@
     </row>
     <row r="327" spans="1:25">
       <c r="A327" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B327" t="s">
         <v>36</v>
@@ -26096,7 +26098,7 @@
     </row>
     <row r="328" spans="1:25">
       <c r="A328" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B328" t="s">
         <v>47</v>
@@ -26110,7 +26112,7 @@
     </row>
     <row r="329" spans="1:25">
       <c r="A329" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B329" t="s">
         <v>53</v>
@@ -26124,7 +26126,7 @@
     </row>
     <row r="330" spans="1:25">
       <c r="A330" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B330" t="s">
         <v>59</v>
@@ -26138,7 +26140,7 @@
     </row>
     <row r="331" spans="1:25">
       <c r="A331" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B331" t="s">
         <v>65</v>
@@ -26152,7 +26154,7 @@
     </row>
     <row r="332" spans="1:25">
       <c r="A332" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B332" t="s">
         <v>74</v>
@@ -26166,7 +26168,7 @@
     </row>
     <row r="333" spans="1:25">
       <c r="A333" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B333" t="s">
         <v>78</v>
@@ -26180,7 +26182,7 @@
     </row>
     <row r="334" spans="1:25">
       <c r="A334" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B334" t="s">
         <v>78</v>
@@ -26194,7 +26196,7 @@
     </row>
     <row r="335" spans="1:25">
       <c r="A335" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B335" t="s">
         <v>82</v>
@@ -26208,7 +26210,7 @@
     </row>
     <row r="336" spans="1:25">
       <c r="A336" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B336" t="s">
         <v>92</v>
@@ -26222,7 +26224,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B337" t="s">
         <v>94</v>
@@ -26236,7 +26238,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B338" t="s">
         <v>109</v>
@@ -26250,7 +26252,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B339" t="s">
         <v>111</v>
@@ -26264,7 +26266,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B340" t="s">
         <v>115</v>
@@ -26278,7 +26280,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B341" t="s">
         <v>117</v>
@@ -26292,7 +26294,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B342" t="s">
         <v>130</v>
@@ -26306,7 +26308,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B343" t="s">
         <v>133</v>
@@ -26320,7 +26322,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B344" t="s">
         <v>136</v>
@@ -26334,7 +26336,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B345" t="s">
         <v>141</v>
@@ -26348,7 +26350,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B346" t="s">
         <v>144</v>
@@ -26362,7 +26364,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B347" t="s">
         <v>144</v>
@@ -26371,12 +26373,12 @@
         <v>1</v>
       </c>
       <c r="D347" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B348" t="s">
         <v>148</v>
@@ -26390,7 +26392,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B349" t="s">
         <v>155</v>
@@ -26404,7 +26406,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B350" t="s">
         <v>157</v>
@@ -26418,7 +26420,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B351" t="s">
         <v>160</v>
@@ -26432,7 +26434,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B352" t="s">
         <v>165</v>
@@ -26446,7 +26448,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B353" t="s">
         <v>176</v>
@@ -26460,7 +26462,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B354" t="s">
         <v>179</v>
@@ -26469,43 +26471,43 @@
         <v>1</v>
       </c>
       <c r="D354" t="s">
-        <v>180</v>
+        <v>510</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B355" t="s">
+        <v>180</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355" t="s">
         <v>181</v>
-      </c>
-      <c r="C355">
-        <v>1</v>
-      </c>
-      <c r="D355" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B356" t="s">
+        <v>183</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356" t="s">
         <v>184</v>
-      </c>
-      <c r="C356">
-        <v>1</v>
-      </c>
-      <c r="D356" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B357" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C357">
         <v>1</v>
@@ -26516,38 +26518,38 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B358" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C358">
         <v>1</v>
       </c>
       <c r="D358" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B359" t="s">
+        <v>190</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359" t="s">
         <v>191</v>
-      </c>
-      <c r="C359">
-        <v>1</v>
-      </c>
-      <c r="D359" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B360" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -26558,24 +26560,24 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B361" t="s">
+        <v>201</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
         <v>202</v>
-      </c>
-      <c r="C361">
-        <v>1</v>
-      </c>
-      <c r="D361" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B362" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -26586,24 +26588,24 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B363" t="s">
+        <v>209</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
         <v>210</v>
-      </c>
-      <c r="C363">
-        <v>1</v>
-      </c>
-      <c r="D363" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B364" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -26614,38 +26616,38 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B365" t="s">
+        <v>226</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365" t="s">
         <v>227</v>
-      </c>
-      <c r="C365">
-        <v>1</v>
-      </c>
-      <c r="D365" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B366" t="s">
+        <v>230</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
         <v>231</v>
-      </c>
-      <c r="C366">
-        <v>1</v>
-      </c>
-      <c r="D366" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B367" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -26656,10 +26658,10 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B368" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -26670,24 +26672,24 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B369" t="s">
+        <v>259</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
         <v>260</v>
-      </c>
-      <c r="C369">
-        <v>1</v>
-      </c>
-      <c r="D369" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B370" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -26698,10 +26700,10 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B371" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -26712,10 +26714,10 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B372" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -26726,66 +26728,66 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B373" t="s">
+        <v>274</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373" t="s">
         <v>275</v>
-      </c>
-      <c r="C373">
-        <v>1</v>
-      </c>
-      <c r="D373" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B374" t="s">
+        <v>278</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374" t="s">
         <v>279</v>
-      </c>
-      <c r="C374">
-        <v>1</v>
-      </c>
-      <c r="D374" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B375" t="s">
+        <v>281</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375" t="s">
         <v>282</v>
-      </c>
-      <c r="C375">
-        <v>1</v>
-      </c>
-      <c r="D375" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B376" t="s">
+        <v>285</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376" t="s">
         <v>286</v>
-      </c>
-      <c r="C376">
-        <v>1</v>
-      </c>
-      <c r="D376" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B377" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -26796,10 +26798,10 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B378" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -26810,38 +26812,38 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B379" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C379">
         <v>1</v>
       </c>
       <c r="D379" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B380" t="s">
+        <v>306</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380" t="s">
         <v>307</v>
-      </c>
-      <c r="C380">
-        <v>1</v>
-      </c>
-      <c r="D380" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B381" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -26852,24 +26854,24 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B382" t="s">
+        <v>314</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382" t="s">
         <v>315</v>
-      </c>
-      <c r="C382">
-        <v>1</v>
-      </c>
-      <c r="D382" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B383" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -26880,24 +26882,24 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B384" t="s">
+        <v>323</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384" t="s">
         <v>324</v>
-      </c>
-      <c r="C384">
-        <v>1</v>
-      </c>
-      <c r="D384" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B385" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -26908,10 +26910,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B386" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -26922,10 +26924,10 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B387" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -26936,10 +26938,10 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B388" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -26950,94 +26952,94 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B389" t="s">
+        <v>336</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
         <v>337</v>
-      </c>
-      <c r="C389">
-        <v>1</v>
-      </c>
-      <c r="D389" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B390" t="s">
+        <v>338</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390" t="s">
         <v>339</v>
-      </c>
-      <c r="C390">
-        <v>1</v>
-      </c>
-      <c r="D390" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B391" t="s">
+        <v>341</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391" t="s">
         <v>342</v>
-      </c>
-      <c r="C391">
-        <v>1</v>
-      </c>
-      <c r="D391" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B392" t="s">
+        <v>345</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392" t="s">
         <v>346</v>
-      </c>
-      <c r="C392">
-        <v>1</v>
-      </c>
-      <c r="D392" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B393" t="s">
+        <v>347</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393" t="s">
         <v>348</v>
-      </c>
-      <c r="C393">
-        <v>1</v>
-      </c>
-      <c r="D393" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B394" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C394">
         <v>1</v>
       </c>
       <c r="D394" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B395" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -27048,66 +27050,66 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B396" t="s">
+        <v>363</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396" t="s">
         <v>364</v>
-      </c>
-      <c r="C396">
-        <v>1</v>
-      </c>
-      <c r="D396" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B397" t="s">
+        <v>368</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397" t="s">
         <v>369</v>
-      </c>
-      <c r="C397">
-        <v>1</v>
-      </c>
-      <c r="D397" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" t="s">
+        <v>509</v>
+      </c>
+      <c r="B398" t="s">
+        <v>384</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398" t="s">
         <v>511</v>
-      </c>
-      <c r="B398" t="s">
-        <v>385</v>
-      </c>
-      <c r="C398">
-        <v>1</v>
-      </c>
-      <c r="D398" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B399" t="s">
+        <v>384</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399" t="s">
         <v>385</v>
-      </c>
-      <c r="C399">
-        <v>1</v>
-      </c>
-      <c r="D399" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B400" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -27118,10 +27120,10 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B401" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -27132,38 +27134,38 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B402" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C402">
         <v>1</v>
       </c>
       <c r="D402" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B403" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C403">
         <v>1</v>
       </c>
       <c r="D403" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B404" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -27174,66 +27176,66 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B405" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C405">
         <v>1</v>
       </c>
       <c r="D405" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B406" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C406">
         <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B407" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C407">
         <v>1</v>
       </c>
       <c r="D407" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B408" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C408">
         <v>1</v>
       </c>
       <c r="D408" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B409" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -27244,10 +27246,10 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B410" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -27258,38 +27260,38 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B411" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C411">
         <v>1</v>
       </c>
       <c r="D411" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B412" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C412">
         <v>1</v>
       </c>
       <c r="D412" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B413" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -27300,38 +27302,38 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B414" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C414">
         <v>1</v>
       </c>
       <c r="D414" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B415" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C415">
         <v>1</v>
       </c>
       <c r="D415" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B416" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -27342,10 +27344,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B417" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -27356,10 +27358,10 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B418" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -27370,38 +27372,38 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B419" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C419">
         <v>1</v>
       </c>
       <c r="D419" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B420" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C420">
         <v>1</v>
       </c>
       <c r="D420" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B421" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -27412,10 +27414,10 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B422" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -27426,10 +27428,10 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B423" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -27440,16 +27442,16 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B424" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C424">
         <v>1</v>
       </c>
       <c r="D424" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/Output/1988/Kansas/Kansas.xlsx
+++ b/Output/1988/Kansas/Kansas.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$Z$424</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$424</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="512">
   <si>
     <t>Name</t>
   </si>
@@ -12195,8 +12195,8 @@
       <c r="J139" t="s">
         <v>26</v>
       </c>
-      <c r="K139" t="s">
-        <v>26</v>
+      <c r="K139">
+        <v>183</v>
       </c>
       <c r="L139">
         <v>59</v>
@@ -19012,8 +19012,8 @@
       <c r="L231" s="2">
         <v>1304</v>
       </c>
-      <c r="M231" t="s">
-        <v>26</v>
+      <c r="M231" s="2">
+        <v>5367</v>
       </c>
       <c r="N231">
         <v>998</v>

--- a/Output/1988/Kansas/Kansas.xlsx
+++ b/Output/1988/Kansas/Kansas.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="320" yWindow="460" windowWidth="28100" windowHeight="17040" xr2:uid="{7320C2BA-BF67-C944-BCE0-8F1486B98BBD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$424</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5084" uniqueCount="507">
   <si>
     <t>Name</t>
   </si>
@@ -1232,9 +1232,6 @@
     <t>QUENEMO</t>
   </si>
   <si>
-    <t>QUINTEB</t>
-  </si>
-  <si>
     <t>READING</t>
   </si>
   <si>
@@ -1526,12 +1523,6 @@
     <t>WYANDOTTE</t>
   </si>
   <si>
-    <t>Included with Kansas City, MO. Began: September 1,1983. Programming</t>
-  </si>
-  <si>
-    <t>Included with Kansas City, MO. Began: October 1,1975. Programming</t>
-  </si>
-  <si>
     <t>WYANDOTTE COUNTY (portions)</t>
   </si>
   <si>
@@ -1550,23 +1541,13 @@
     <t>See also PARKVILLE, MO</t>
   </si>
   <si>
-    <t>Below 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>See OVERLAND PARK, KS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>See NEWTON, KS</t>
+  </si>
+  <si>
+    <t>QUINTER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1936,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5D55E8-AC76-244D-9C78-ED7A3419598E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D4FADF-D849-864F-92CA-EFF2ED6D2226}">
   <dimension ref="A1:Z424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1948,7 +1929,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2028,7 +2009,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2102,7 +2083,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -2176,7 +2157,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -2250,7 +2231,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -2324,7 +2305,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -2398,7 +2379,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -2472,7 +2453,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -2546,7 +2527,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -2620,7 +2601,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
@@ -2694,7 +2675,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
@@ -2768,7 +2749,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -2842,7 +2823,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -2916,7 +2897,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
@@ -2990,7 +2971,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
@@ -3064,7 +3045,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
@@ -3138,7 +3119,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
@@ -3212,7 +3193,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -3286,7 +3267,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
@@ -3360,7 +3341,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -3434,7 +3415,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -3508,7 +3489,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -3582,7 +3563,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -3656,7 +3637,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
@@ -3730,7 +3711,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -3804,7 +3785,7 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -3878,7 +3859,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
@@ -3952,7 +3933,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -4026,7 +4007,7 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B29" t="s">
         <v>68</v>
@@ -4100,7 +4081,7 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B30" t="s">
         <v>69</v>
@@ -4174,7 +4155,7 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B31" t="s">
         <v>70</v>
@@ -4248,7 +4229,7 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -4325,7 +4306,7 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
@@ -4399,7 +4380,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B34" t="s">
         <v>76</v>
@@ -4473,7 +4454,7 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -4547,7 +4528,7 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B36" t="s">
         <v>81</v>
@@ -4621,7 +4602,7 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B37" t="s">
         <v>82</v>
@@ -4695,7 +4676,7 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
@@ -4769,7 +4750,7 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
@@ -4843,7 +4824,7 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B40" t="s">
         <v>86</v>
@@ -4917,7 +4898,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B41" t="s">
         <v>87</v>
@@ -4991,7 +4972,7 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B42" t="s">
         <v>88</v>
@@ -5065,7 +5046,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B43" t="s">
         <v>89</v>
@@ -5139,7 +5120,7 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B44" t="s">
         <v>90</v>
@@ -5213,7 +5194,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B45" t="s">
         <v>91</v>
@@ -5287,7 +5268,7 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B46" t="s">
         <v>96</v>
@@ -5361,7 +5342,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B47" t="s">
         <v>97</v>
@@ -5435,7 +5416,7 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B48" t="s">
         <v>98</v>
@@ -5509,7 +5490,7 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B49" t="s">
         <v>99</v>
@@ -5583,7 +5564,7 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B50" t="s">
         <v>100</v>
@@ -5657,7 +5638,7 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
@@ -5731,7 +5712,7 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B52" t="s">
         <v>102</v>
@@ -5805,7 +5786,7 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B53" t="s">
         <v>103</v>
@@ -5879,7 +5860,7 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
@@ -5939,7 +5920,7 @@
         <v>1344</v>
       </c>
       <c r="V54">
-        <v>530</v>
+        <v>688</v>
       </c>
       <c r="W54">
         <v>12</v>
@@ -5953,7 +5934,7 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B55" t="s">
         <v>104</v>
@@ -6027,7 +6008,7 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B56" t="s">
         <v>105</v>
@@ -6101,10 +6082,10 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B57" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -6175,7 +6156,7 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B58" t="s">
         <v>106</v>
@@ -6249,7 +6230,7 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B59" t="s">
         <v>107</v>
@@ -6323,7 +6304,7 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B60" t="s">
         <v>108</v>
@@ -6392,12 +6373,12 @@
         <v>2</v>
       </c>
       <c r="Y60" t="s">
-        <v>507</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s">
         <v>110</v>
@@ -6471,7 +6452,7 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B62" t="s">
         <v>113</v>
@@ -6545,7 +6526,7 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B63" t="s">
         <v>114</v>
@@ -6619,7 +6600,7 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B64" t="s">
         <v>119</v>
@@ -6693,7 +6674,7 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B65" t="s">
         <v>120</v>
@@ -6767,7 +6748,7 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B66" t="s">
         <v>121</v>
@@ -6841,7 +6822,7 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s">
         <v>122</v>
@@ -6915,7 +6896,7 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B68" t="s">
         <v>123</v>
@@ -6989,7 +6970,7 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B69" t="s">
         <v>124</v>
@@ -7063,7 +7044,7 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B70" t="s">
         <v>125</v>
@@ -7137,7 +7118,7 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B71" t="s">
         <v>126</v>
@@ -7211,7 +7192,7 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B72" t="s">
         <v>127</v>
@@ -7285,7 +7266,7 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s">
         <v>128</v>
@@ -7359,7 +7340,7 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s">
         <v>129</v>
@@ -7433,7 +7414,7 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s">
         <v>132</v>
@@ -7507,7 +7488,7 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B76" t="s">
         <v>135</v>
@@ -7581,7 +7562,7 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B77" t="s">
         <v>137</v>
@@ -7655,7 +7636,7 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B78" t="s">
         <v>138</v>
@@ -7729,7 +7710,7 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B79" t="s">
         <v>139</v>
@@ -7803,7 +7784,7 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B80" t="s">
         <v>140</v>
@@ -7877,7 +7858,7 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B81" t="s">
         <v>143</v>
@@ -7951,7 +7932,7 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B82" t="s">
         <v>146</v>
@@ -8025,7 +8006,7 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s">
         <v>147</v>
@@ -8099,7 +8080,7 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B84" t="s">
         <v>150</v>
@@ -8173,7 +8154,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s">
         <v>151</v>
@@ -8247,7 +8228,7 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B86" t="s">
         <v>152</v>
@@ -8321,7 +8302,7 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B87" t="s">
         <v>153</v>
@@ -8395,7 +8376,7 @@
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B88" t="s">
         <v>154</v>
@@ -8469,7 +8450,7 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B89" t="s">
         <v>156</v>
@@ -8543,7 +8524,7 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B90" t="s">
         <v>159</v>
@@ -8617,7 +8598,7 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B91" t="s">
         <v>160</v>
@@ -8691,7 +8672,7 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B92" t="s">
         <v>162</v>
@@ -8765,7 +8746,7 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B93" t="s">
         <v>163</v>
@@ -8839,7 +8820,7 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B94" t="s">
         <v>164</v>
@@ -8913,7 +8894,7 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B95" t="s">
         <v>167</v>
@@ -8987,7 +8968,7 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B96" t="s">
         <v>168</v>
@@ -9061,7 +9042,7 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B97" t="s">
         <v>169</v>
@@ -9135,7 +9116,7 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B98" t="s">
         <v>170</v>
@@ -9209,7 +9190,7 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B99" t="s">
         <v>171</v>
@@ -9283,7 +9264,7 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B100" t="s">
         <v>172</v>
@@ -9357,7 +9338,7 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B101" t="s">
         <v>173</v>
@@ -9431,7 +9412,7 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B102" t="s">
         <v>174</v>
@@ -9505,7 +9486,7 @@
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B103" t="s">
         <v>175</v>
@@ -9579,7 +9560,7 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B104" t="s">
         <v>178</v>
@@ -9653,7 +9634,7 @@
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B105" t="s">
         <v>182</v>
@@ -9727,7 +9708,7 @@
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B106" t="s">
         <v>186</v>
@@ -9801,7 +9782,7 @@
     </row>
     <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B107" t="s">
         <v>187</v>
@@ -9875,7 +9856,7 @@
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B108" t="s">
         <v>188</v>
@@ -9949,7 +9930,7 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B109" t="s">
         <v>189</v>
@@ -10023,7 +10004,7 @@
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B110" t="s">
         <v>192</v>
@@ -10097,7 +10078,7 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B111" t="s">
         <v>193</v>
@@ -10171,7 +10152,7 @@
     </row>
     <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B112" t="s">
         <v>194</v>
@@ -10245,7 +10226,7 @@
     </row>
     <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B113" t="s">
         <v>195</v>
@@ -10319,7 +10300,7 @@
     </row>
     <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B114" t="s">
         <v>196</v>
@@ -10393,7 +10374,7 @@
     </row>
     <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B115" t="s">
         <v>197</v>
@@ -10467,7 +10448,7 @@
     </row>
     <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B116" t="s">
         <v>199</v>
@@ -10541,7 +10522,7 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B117" t="s">
         <v>200</v>
@@ -10615,7 +10596,7 @@
     </row>
     <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
@@ -10689,7 +10670,7 @@
     </row>
     <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B119" t="s">
         <v>205</v>
@@ -10763,7 +10744,7 @@
     </row>
     <row r="120" spans="1:25">
       <c r="A120" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B120" t="s">
         <v>206</v>
@@ -10789,8 +10770,8 @@
       <c r="J120" t="s">
         <v>26</v>
       </c>
-      <c r="K120" t="s">
-        <v>26</v>
+      <c r="K120">
+        <v>79</v>
       </c>
       <c r="L120" t="s">
         <v>26</v>
@@ -10837,7 +10818,7 @@
     </row>
     <row r="121" spans="1:25">
       <c r="A121" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B121" t="s">
         <v>207</v>
@@ -10911,7 +10892,7 @@
     </row>
     <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B122" t="s">
         <v>208</v>
@@ -10985,7 +10966,7 @@
     </row>
     <row r="123" spans="1:25">
       <c r="A123" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B123" t="s">
         <v>211</v>
@@ -11059,7 +11040,7 @@
     </row>
     <row r="124" spans="1:25">
       <c r="A124" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B124" t="s">
         <v>212</v>
@@ -11133,7 +11114,7 @@
     </row>
     <row r="125" spans="1:25">
       <c r="A125" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B125" t="s">
         <v>213</v>
@@ -11207,7 +11188,7 @@
     </row>
     <row r="126" spans="1:25">
       <c r="A126" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B126" t="s">
         <v>214</v>
@@ -11281,7 +11262,7 @@
     </row>
     <row r="127" spans="1:25">
       <c r="A127" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B127" t="s">
         <v>215</v>
@@ -11355,7 +11336,7 @@
     </row>
     <row r="128" spans="1:25">
       <c r="A128" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B128" t="s">
         <v>216</v>
@@ -11429,7 +11410,7 @@
     </row>
     <row r="129" spans="1:25">
       <c r="A129" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B129" t="s">
         <v>217</v>
@@ -11503,7 +11484,7 @@
     </row>
     <row r="130" spans="1:25">
       <c r="A130" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B130" t="s">
         <v>219</v>
@@ -11577,7 +11558,7 @@
     </row>
     <row r="131" spans="1:25">
       <c r="A131" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B131" t="s">
         <v>220</v>
@@ -11651,7 +11632,7 @@
     </row>
     <row r="132" spans="1:25">
       <c r="A132" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B132" t="s">
         <v>221</v>
@@ -11725,7 +11706,7 @@
     </row>
     <row r="133" spans="1:25">
       <c r="A133" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B133" t="s">
         <v>222</v>
@@ -11799,7 +11780,7 @@
     </row>
     <row r="134" spans="1:25">
       <c r="A134" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B134" t="s">
         <v>223</v>
@@ -11873,7 +11854,7 @@
     </row>
     <row r="135" spans="1:25">
       <c r="A135" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B135" t="s">
         <v>224</v>
@@ -11947,7 +11928,7 @@
     </row>
     <row r="136" spans="1:25">
       <c r="A136" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B136" t="s">
         <v>225</v>
@@ -12021,7 +12002,7 @@
     </row>
     <row r="137" spans="1:25">
       <c r="A137" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B137" t="s">
         <v>228</v>
@@ -12095,7 +12076,7 @@
     </row>
     <row r="138" spans="1:25">
       <c r="A138" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B138" t="s">
         <v>229</v>
@@ -12169,7 +12150,7 @@
     </row>
     <row r="139" spans="1:25">
       <c r="A139" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B139" t="s">
         <v>232</v>
@@ -12243,7 +12224,7 @@
     </row>
     <row r="140" spans="1:25">
       <c r="A140" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B140" t="s">
         <v>235</v>
@@ -12269,8 +12250,8 @@
       <c r="J140" t="s">
         <v>26</v>
       </c>
-      <c r="K140" t="s">
-        <v>26</v>
+      <c r="K140">
+        <v>216</v>
       </c>
       <c r="L140" t="s">
         <v>26</v>
@@ -12317,7 +12298,7 @@
     </row>
     <row r="141" spans="1:25">
       <c r="A141" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B141" t="s">
         <v>236</v>
@@ -12391,7 +12372,7 @@
     </row>
     <row r="142" spans="1:25">
       <c r="A142" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B142" t="s">
         <v>237</v>
@@ -12465,7 +12446,7 @@
     </row>
     <row r="143" spans="1:25">
       <c r="A143" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B143" t="s">
         <v>238</v>
@@ -12539,7 +12520,7 @@
     </row>
     <row r="144" spans="1:25">
       <c r="A144" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B144" t="s">
         <v>239</v>
@@ -12613,7 +12594,7 @@
     </row>
     <row r="145" spans="1:25">
       <c r="A145" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B145" t="s">
         <v>240</v>
@@ -12687,7 +12668,7 @@
     </row>
     <row r="146" spans="1:25">
       <c r="A146" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B146" t="s">
         <v>241</v>
@@ -12761,7 +12742,7 @@
     </row>
     <row r="147" spans="1:25">
       <c r="A147" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B147" t="s">
         <v>242</v>
@@ -12835,7 +12816,7 @@
     </row>
     <row r="148" spans="1:25">
       <c r="A148" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B148" t="s">
         <v>243</v>
@@ -12909,7 +12890,7 @@
     </row>
     <row r="149" spans="1:25">
       <c r="A149" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B149" t="s">
         <v>244</v>
@@ -12983,7 +12964,7 @@
     </row>
     <row r="150" spans="1:25">
       <c r="A150" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B150" t="s">
         <v>245</v>
@@ -13057,7 +13038,7 @@
     </row>
     <row r="151" spans="1:25">
       <c r="A151" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B151" t="s">
         <v>246</v>
@@ -13131,7 +13112,7 @@
     </row>
     <row r="152" spans="1:25">
       <c r="A152" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B152" t="s">
         <v>247</v>
@@ -13205,7 +13186,7 @@
     </row>
     <row r="153" spans="1:25">
       <c r="A153" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B153" t="s">
         <v>248</v>
@@ -13279,7 +13260,7 @@
     </row>
     <row r="154" spans="1:25">
       <c r="A154" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B154" t="s">
         <v>249</v>
@@ -13353,7 +13334,7 @@
     </row>
     <row r="155" spans="1:25">
       <c r="A155" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B155" t="s">
         <v>250</v>
@@ -13427,7 +13408,7 @@
     </row>
     <row r="156" spans="1:25">
       <c r="A156" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B156" t="s">
         <v>251</v>
@@ -13501,7 +13482,7 @@
     </row>
     <row r="157" spans="1:25">
       <c r="A157" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B157" t="s">
         <v>252</v>
@@ -13575,7 +13556,7 @@
     </row>
     <row r="158" spans="1:25">
       <c r="A158" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B158" t="s">
         <v>253</v>
@@ -13649,7 +13630,7 @@
     </row>
     <row r="159" spans="1:25">
       <c r="A159" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B159" t="s">
         <v>254</v>
@@ -13723,7 +13704,7 @@
     </row>
     <row r="160" spans="1:25">
       <c r="A160" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B160" t="s">
         <v>255</v>
@@ -13797,7 +13778,7 @@
     </row>
     <row r="161" spans="1:25">
       <c r="A161" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B161" t="s">
         <v>256</v>
@@ -13871,7 +13852,7 @@
     </row>
     <row r="162" spans="1:25">
       <c r="A162" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B162" t="s">
         <v>258</v>
@@ -13945,7 +13926,7 @@
     </row>
     <row r="163" spans="1:25">
       <c r="A163" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B163" t="s">
         <v>261</v>
@@ -14019,7 +14000,7 @@
     </row>
     <row r="164" spans="1:25">
       <c r="A164" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B164" t="s">
         <v>265</v>
@@ -14093,7 +14074,7 @@
     </row>
     <row r="165" spans="1:25">
       <c r="A165" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B165" t="s">
         <v>266</v>
@@ -14167,7 +14148,7 @@
     </row>
     <row r="166" spans="1:25">
       <c r="A166" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B166" t="s">
         <v>267</v>
@@ -14241,7 +14222,7 @@
     </row>
     <row r="167" spans="1:25">
       <c r="A167" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B167" t="s">
         <v>268</v>
@@ -14315,7 +14296,7 @@
     </row>
     <row r="168" spans="1:25">
       <c r="A168" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B168" t="s">
         <v>269</v>
@@ -14389,7 +14370,7 @@
     </row>
     <row r="169" spans="1:25">
       <c r="A169" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B169" t="s">
         <v>270</v>
@@ -14463,7 +14444,7 @@
     </row>
     <row r="170" spans="1:25">
       <c r="A170" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B170" t="s">
         <v>271</v>
@@ -14537,7 +14518,7 @@
     </row>
     <row r="171" spans="1:25">
       <c r="A171" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B171" t="s">
         <v>272</v>
@@ -14611,7 +14592,7 @@
     </row>
     <row r="172" spans="1:25">
       <c r="A172" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B172" t="s">
         <v>273</v>
@@ -14685,7 +14666,7 @@
     </row>
     <row r="173" spans="1:25">
       <c r="A173" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B173" t="s">
         <v>276</v>
@@ -14759,7 +14740,7 @@
     </row>
     <row r="174" spans="1:25">
       <c r="A174" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B174" t="s">
         <v>277</v>
@@ -14833,7 +14814,7 @@
     </row>
     <row r="175" spans="1:25">
       <c r="A175" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B175" t="s">
         <v>280</v>
@@ -14860,7 +14841,7 @@
         <v>26</v>
       </c>
       <c r="K175" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="L175" t="s">
         <v>26</v>
@@ -14907,7 +14888,7 @@
     </row>
     <row r="176" spans="1:25">
       <c r="A176" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B176" t="s">
         <v>283</v>
@@ -14981,7 +14962,7 @@
     </row>
     <row r="177" spans="1:26">
       <c r="A177" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B177" t="s">
         <v>284</v>
@@ -15055,7 +15036,7 @@
     </row>
     <row r="178" spans="1:26">
       <c r="A178" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B178" t="s">
         <v>288</v>
@@ -15129,7 +15110,7 @@
     </row>
     <row r="179" spans="1:26">
       <c r="A179" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B179" t="s">
         <v>289</v>
@@ -15203,7 +15184,7 @@
     </row>
     <row r="180" spans="1:26">
       <c r="A180" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B180" t="s">
         <v>290</v>
@@ -15277,7 +15258,7 @@
     </row>
     <row r="181" spans="1:26">
       <c r="A181" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B181" t="s">
         <v>291</v>
@@ -15351,7 +15332,7 @@
     </row>
     <row r="182" spans="1:26">
       <c r="A182" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B182" t="s">
         <v>292</v>
@@ -15425,7 +15406,7 @@
     </row>
     <row r="183" spans="1:26">
       <c r="A183" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B183" t="s">
         <v>293</v>
@@ -15499,7 +15480,7 @@
     </row>
     <row r="184" spans="1:26">
       <c r="A184" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B184" t="s">
         <v>294</v>
@@ -15573,7 +15554,7 @@
     </row>
     <row r="185" spans="1:26">
       <c r="A185" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B185" t="s">
         <v>295</v>
@@ -15647,7 +15628,7 @@
     </row>
     <row r="186" spans="1:26">
       <c r="A186" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B186" t="s">
         <v>296</v>
@@ -15721,7 +15702,7 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B187" t="s">
         <v>297</v>
@@ -15798,7 +15779,7 @@
     </row>
     <row r="188" spans="1:26">
       <c r="A188" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B188" t="s">
         <v>298</v>
@@ -15872,7 +15853,7 @@
     </row>
     <row r="189" spans="1:26">
       <c r="A189" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B189" t="s">
         <v>299</v>
@@ -15946,7 +15927,7 @@
     </row>
     <row r="190" spans="1:26">
       <c r="A190" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B190" t="s">
         <v>300</v>
@@ -16020,7 +16001,7 @@
     </row>
     <row r="191" spans="1:26">
       <c r="A191" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B191" t="s">
         <v>302</v>
@@ -16094,10 +16075,10 @@
     </row>
     <row r="192" spans="1:26">
       <c r="A192" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B192" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -16168,7 +16149,7 @@
     </row>
     <row r="193" spans="1:25">
       <c r="A193" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B193" t="s">
         <v>304</v>
@@ -16242,7 +16223,7 @@
     </row>
     <row r="194" spans="1:25">
       <c r="A194" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B194" t="s">
         <v>305</v>
@@ -16274,8 +16255,8 @@
       <c r="L194">
         <v>88</v>
       </c>
-      <c r="M194" t="s">
-        <v>26</v>
+      <c r="M194">
+        <v>394</v>
       </c>
       <c r="N194" t="s">
         <v>26</v>
@@ -16301,8 +16282,8 @@
       <c r="U194" s="2">
         <v>2001</v>
       </c>
-      <c r="V194">
-        <v>750</v>
+      <c r="V194" s="2">
+        <v>2001</v>
       </c>
       <c r="W194">
         <v>12</v>
@@ -16316,7 +16297,7 @@
     </row>
     <row r="195" spans="1:25">
       <c r="A195" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B195" t="s">
         <v>308</v>
@@ -16390,7 +16371,7 @@
     </row>
     <row r="196" spans="1:25">
       <c r="A196" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B196" t="s">
         <v>310</v>
@@ -16464,7 +16445,7 @@
     </row>
     <row r="197" spans="1:25">
       <c r="A197" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B197" t="s">
         <v>311</v>
@@ -16538,7 +16519,7 @@
     </row>
     <row r="198" spans="1:25">
       <c r="A198" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B198" t="s">
         <v>312</v>
@@ -16612,7 +16593,7 @@
     </row>
     <row r="199" spans="1:25">
       <c r="A199" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B199" t="s">
         <v>313</v>
@@ -16686,7 +16667,7 @@
     </row>
     <row r="200" spans="1:25">
       <c r="A200" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B200" t="s">
         <v>316</v>
@@ -16760,7 +16741,7 @@
     </row>
     <row r="201" spans="1:25">
       <c r="A201" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B201" t="s">
         <v>317</v>
@@ -16834,7 +16815,7 @@
     </row>
     <row r="202" spans="1:25">
       <c r="A202" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B202" t="s">
         <v>319</v>
@@ -16908,7 +16889,7 @@
     </row>
     <row r="203" spans="1:25">
       <c r="A203" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B203" t="s">
         <v>320</v>
@@ -16982,7 +16963,7 @@
     </row>
     <row r="204" spans="1:25">
       <c r="A204" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B204" t="s">
         <v>321</v>
@@ -17056,7 +17037,7 @@
     </row>
     <row r="205" spans="1:25">
       <c r="A205" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B205" t="s">
         <v>322</v>
@@ -17130,7 +17111,7 @@
     </row>
     <row r="206" spans="1:25">
       <c r="A206" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B206" t="s">
         <v>325</v>
@@ -17204,7 +17185,7 @@
     </row>
     <row r="207" spans="1:25">
       <c r="A207" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B207" t="s">
         <v>326</v>
@@ -17278,7 +17259,7 @@
     </row>
     <row r="208" spans="1:25">
       <c r="A208" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B208" t="s">
         <v>327</v>
@@ -17352,7 +17333,7 @@
     </row>
     <row r="209" spans="1:25">
       <c r="A209" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B209" t="s">
         <v>329</v>
@@ -17426,7 +17407,7 @@
     </row>
     <row r="210" spans="1:25">
       <c r="A210" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B210" t="s">
         <v>330</v>
@@ -17500,7 +17481,7 @@
     </row>
     <row r="211" spans="1:25">
       <c r="A211" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B211" t="s">
         <v>331</v>
@@ -17574,7 +17555,7 @@
     </row>
     <row r="212" spans="1:25">
       <c r="A212" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B212" t="s">
         <v>332</v>
@@ -17600,8 +17581,8 @@
       <c r="J212" t="s">
         <v>26</v>
       </c>
-      <c r="K212" t="s">
-        <v>26</v>
+      <c r="K212">
+        <v>86</v>
       </c>
       <c r="L212" t="s">
         <v>26</v>
@@ -17648,7 +17629,7 @@
     </row>
     <row r="213" spans="1:25">
       <c r="A213" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B213" t="s">
         <v>338</v>
@@ -17722,7 +17703,7 @@
     </row>
     <row r="214" spans="1:25">
       <c r="A214" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B214" t="s">
         <v>340</v>
@@ -17796,7 +17777,7 @@
     </row>
     <row r="215" spans="1:25">
       <c r="A215" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B215" t="s">
         <v>343</v>
@@ -17870,7 +17851,7 @@
     </row>
     <row r="216" spans="1:25">
       <c r="A216" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B216" t="s">
         <v>344</v>
@@ -17944,7 +17925,7 @@
     </row>
     <row r="217" spans="1:25">
       <c r="A217" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B217" t="s">
         <v>349</v>
@@ -18018,7 +17999,7 @@
     </row>
     <row r="218" spans="1:25">
       <c r="A218" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B218" t="s">
         <v>350</v>
@@ -18092,7 +18073,7 @@
     </row>
     <row r="219" spans="1:25">
       <c r="A219" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B219" t="s">
         <v>351</v>
@@ -18166,7 +18147,7 @@
     </row>
     <row r="220" spans="1:25">
       <c r="A220" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B220" t="s">
         <v>353</v>
@@ -18240,7 +18221,7 @@
     </row>
     <row r="221" spans="1:25">
       <c r="A221" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B221" t="s">
         <v>354</v>
@@ -18314,7 +18295,7 @@
     </row>
     <row r="222" spans="1:25">
       <c r="A222" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B222" t="s">
         <v>355</v>
@@ -18388,7 +18369,7 @@
     </row>
     <row r="223" spans="1:25">
       <c r="A223" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B223" t="s">
         <v>356</v>
@@ -18462,7 +18443,7 @@
     </row>
     <row r="224" spans="1:25">
       <c r="A224" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B224" t="s">
         <v>358</v>
@@ -18536,7 +18517,7 @@
     </row>
     <row r="225" spans="1:25">
       <c r="A225" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B225" t="s">
         <v>360</v>
@@ -18610,7 +18591,7 @@
     </row>
     <row r="226" spans="1:25">
       <c r="A226" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B226" t="s">
         <v>361</v>
@@ -18684,7 +18665,7 @@
     </row>
     <row r="227" spans="1:25">
       <c r="A227" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B227" t="s">
         <v>362</v>
@@ -18758,7 +18739,7 @@
     </row>
     <row r="228" spans="1:25">
       <c r="A228" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B228" t="s">
         <v>365</v>
@@ -18832,7 +18813,7 @@
     </row>
     <row r="229" spans="1:25">
       <c r="A229" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B229" t="s">
         <v>366</v>
@@ -18906,7 +18887,7 @@
     </row>
     <row r="230" spans="1:25">
       <c r="A230" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B230" t="s">
         <v>367</v>
@@ -18980,7 +18961,7 @@
     </row>
     <row r="231" spans="1:25">
       <c r="A231" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B231" t="s">
         <v>368</v>
@@ -19054,7 +19035,7 @@
     </row>
     <row r="232" spans="1:25">
       <c r="A232" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B232" t="s">
         <v>370</v>
@@ -19128,7 +19109,7 @@
     </row>
     <row r="233" spans="1:25">
       <c r="A233" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B233" t="s">
         <v>371</v>
@@ -19202,7 +19183,7 @@
     </row>
     <row r="234" spans="1:25">
       <c r="A234" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B234" t="s">
         <v>372</v>
@@ -19276,7 +19257,7 @@
     </row>
     <row r="235" spans="1:25">
       <c r="A235" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B235" t="s">
         <v>373</v>
@@ -19350,7 +19331,7 @@
     </row>
     <row r="236" spans="1:25">
       <c r="A236" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B236" t="s">
         <v>374</v>
@@ -19424,7 +19405,7 @@
     </row>
     <row r="237" spans="1:25">
       <c r="A237" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B237" t="s">
         <v>375</v>
@@ -19498,7 +19479,7 @@
     </row>
     <row r="238" spans="1:25">
       <c r="A238" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B238" t="s">
         <v>376</v>
@@ -19572,7 +19553,7 @@
     </row>
     <row r="239" spans="1:25">
       <c r="A239" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B239" t="s">
         <v>377</v>
@@ -19646,7 +19627,7 @@
     </row>
     <row r="240" spans="1:25">
       <c r="A240" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B240" t="s">
         <v>378</v>
@@ -19720,7 +19701,7 @@
     </row>
     <row r="241" spans="1:25">
       <c r="A241" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B241" t="s">
         <v>379</v>
@@ -19794,7 +19775,7 @@
     </row>
     <row r="242" spans="1:25">
       <c r="A242" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B242" t="s">
         <v>380</v>
@@ -19868,7 +19849,7 @@
     </row>
     <row r="243" spans="1:25">
       <c r="A243" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B243" t="s">
         <v>381</v>
@@ -19942,7 +19923,7 @@
     </row>
     <row r="244" spans="1:25">
       <c r="A244" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B244" t="s">
         <v>382</v>
@@ -20016,7 +19997,7 @@
     </row>
     <row r="245" spans="1:25">
       <c r="A245" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B245" t="s">
         <v>383</v>
@@ -20090,7 +20071,7 @@
     </row>
     <row r="246" spans="1:25">
       <c r="A246" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B246" t="s">
         <v>386</v>
@@ -20164,7 +20145,7 @@
     </row>
     <row r="247" spans="1:25">
       <c r="A247" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B247" t="s">
         <v>387</v>
@@ -20238,7 +20219,7 @@
     </row>
     <row r="248" spans="1:25">
       <c r="A248" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B248" t="s">
         <v>389</v>
@@ -20312,7 +20293,7 @@
     </row>
     <row r="249" spans="1:25">
       <c r="A249" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B249" t="s">
         <v>390</v>
@@ -20386,7 +20367,7 @@
     </row>
     <row r="250" spans="1:25">
       <c r="A250" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B250" t="s">
         <v>391</v>
@@ -20460,7 +20441,7 @@
     </row>
     <row r="251" spans="1:25">
       <c r="A251" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B251" t="s">
         <v>392</v>
@@ -20534,7 +20515,7 @@
     </row>
     <row r="252" spans="1:25">
       <c r="A252" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B252" t="s">
         <v>393</v>
@@ -20608,7 +20589,7 @@
     </row>
     <row r="253" spans="1:25">
       <c r="A253" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B253" t="s">
         <v>394</v>
@@ -20682,7 +20663,7 @@
     </row>
     <row r="254" spans="1:25">
       <c r="A254" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B254" t="s">
         <v>395</v>
@@ -20756,7 +20737,7 @@
     </row>
     <row r="255" spans="1:25">
       <c r="A255" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B255" t="s">
         <v>397</v>
@@ -20830,7 +20811,7 @@
     </row>
     <row r="256" spans="1:25">
       <c r="A256" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B256" t="s">
         <v>398</v>
@@ -20904,7 +20885,7 @@
     </row>
     <row r="257" spans="1:25">
       <c r="A257" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B257" t="s">
         <v>399</v>
@@ -20978,7 +20959,7 @@
     </row>
     <row r="258" spans="1:25">
       <c r="A258" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B258" t="s">
         <v>400</v>
@@ -21052,10 +21033,10 @@
     </row>
     <row r="259" spans="1:25">
       <c r="A259" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B259" t="s">
-        <v>401</v>
+        <v>506</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -21126,10 +21107,10 @@
     </row>
     <row r="260" spans="1:25">
       <c r="A260" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B260" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -21200,10 +21181,10 @@
     </row>
     <row r="261" spans="1:25">
       <c r="A261" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B261" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -21274,10 +21255,10 @@
     </row>
     <row r="262" spans="1:25">
       <c r="A262" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B262" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -21348,10 +21329,10 @@
     </row>
     <row r="263" spans="1:25">
       <c r="A263" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B263" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -21422,10 +21403,10 @@
     </row>
     <row r="264" spans="1:25">
       <c r="A264" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B264" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -21496,10 +21477,10 @@
     </row>
     <row r="265" spans="1:25">
       <c r="A265" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B265" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -21570,10 +21551,10 @@
     </row>
     <row r="266" spans="1:25">
       <c r="A266" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B266" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -21644,10 +21625,10 @@
     </row>
     <row r="267" spans="1:25">
       <c r="A267" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B267" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -21718,10 +21699,10 @@
     </row>
     <row r="268" spans="1:25">
       <c r="A268" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B268" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -21792,10 +21773,10 @@
     </row>
     <row r="269" spans="1:25">
       <c r="A269" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B269" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -21866,10 +21847,10 @@
     </row>
     <row r="270" spans="1:25">
       <c r="A270" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B270" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -21940,10 +21921,10 @@
     </row>
     <row r="271" spans="1:25">
       <c r="A271" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B271" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -22014,10 +21995,10 @@
     </row>
     <row r="272" spans="1:25">
       <c r="A272" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B272" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -22088,10 +22069,10 @@
     </row>
     <row r="273" spans="1:25">
       <c r="A273" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B273" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -22162,10 +22143,10 @@
     </row>
     <row r="274" spans="1:25">
       <c r="A274" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B274" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -22236,10 +22217,10 @@
     </row>
     <row r="275" spans="1:25">
       <c r="A275" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B275" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -22310,10 +22291,10 @@
     </row>
     <row r="276" spans="1:25">
       <c r="A276" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B276" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -22384,10 +22365,10 @@
     </row>
     <row r="277" spans="1:25">
       <c r="A277" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -22458,10 +22439,10 @@
     </row>
     <row r="278" spans="1:25">
       <c r="A278" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B278" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -22532,10 +22513,10 @@
     </row>
     <row r="279" spans="1:25">
       <c r="A279" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B279" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -22606,10 +22587,10 @@
     </row>
     <row r="280" spans="1:25">
       <c r="A280" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B280" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -22680,10 +22661,10 @@
     </row>
     <row r="281" spans="1:25">
       <c r="A281" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B281" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -22754,10 +22735,10 @@
     </row>
     <row r="282" spans="1:25">
       <c r="A282" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B282" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -22828,10 +22809,10 @@
     </row>
     <row r="283" spans="1:25">
       <c r="A283" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B283" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -22902,10 +22883,10 @@
     </row>
     <row r="284" spans="1:25">
       <c r="A284" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B284" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -22976,10 +22957,10 @@
     </row>
     <row r="285" spans="1:25">
       <c r="A285" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B285" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -23050,10 +23031,10 @@
     </row>
     <row r="286" spans="1:25">
       <c r="A286" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B286" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -23124,10 +23105,10 @@
     </row>
     <row r="287" spans="1:25">
       <c r="A287" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B287" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -23150,8 +23131,8 @@
       <c r="J287" t="s">
         <v>26</v>
       </c>
-      <c r="K287" t="s">
-        <v>26</v>
+      <c r="K287">
+        <v>331</v>
       </c>
       <c r="L287" t="s">
         <v>26</v>
@@ -23198,10 +23179,10 @@
     </row>
     <row r="288" spans="1:25">
       <c r="A288" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B288" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -23272,10 +23253,10 @@
     </row>
     <row r="289" spans="1:25">
       <c r="A289" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B289" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -23346,10 +23327,10 @@
     </row>
     <row r="290" spans="1:25">
       <c r="A290" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B290" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -23420,10 +23401,10 @@
     </row>
     <row r="291" spans="1:25">
       <c r="A291" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B291" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -23494,10 +23475,10 @@
     </row>
     <row r="292" spans="1:25">
       <c r="A292" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B292" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -23553,8 +23534,8 @@
       <c r="U292">
         <v>700</v>
       </c>
-      <c r="V292" s="2">
-        <v>44402</v>
+      <c r="V292">
+        <v>700</v>
       </c>
       <c r="W292">
         <v>36</v>
@@ -23568,10 +23549,10 @@
     </row>
     <row r="293" spans="1:25">
       <c r="A293" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B293" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -23642,10 +23623,10 @@
     </row>
     <row r="294" spans="1:25">
       <c r="A294" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B294" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -23716,10 +23697,10 @@
     </row>
     <row r="295" spans="1:25">
       <c r="A295" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B295" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -23790,10 +23771,10 @@
     </row>
     <row r="296" spans="1:25">
       <c r="A296" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B296" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -23864,10 +23845,10 @@
     </row>
     <row r="297" spans="1:25">
       <c r="A297" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B297" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -23938,10 +23919,10 @@
     </row>
     <row r="298" spans="1:25">
       <c r="A298" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B298" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -24012,10 +23993,10 @@
     </row>
     <row r="299" spans="1:25">
       <c r="A299" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B299" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -24086,10 +24067,10 @@
     </row>
     <row r="300" spans="1:25">
       <c r="A300" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B300" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -24160,10 +24141,10 @@
     </row>
     <row r="301" spans="1:25">
       <c r="A301" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B301" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -24234,10 +24215,10 @@
     </row>
     <row r="302" spans="1:25">
       <c r="A302" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B302" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -24308,10 +24289,10 @@
     </row>
     <row r="303" spans="1:25">
       <c r="A303" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B303" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -24382,10 +24363,10 @@
     </row>
     <row r="304" spans="1:25">
       <c r="A304" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B304" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -24456,10 +24437,10 @@
     </row>
     <row r="305" spans="1:25">
       <c r="A305" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B305" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -24530,10 +24511,10 @@
     </row>
     <row r="306" spans="1:25">
       <c r="A306" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B306" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -24604,10 +24585,10 @@
     </row>
     <row r="307" spans="1:25">
       <c r="A307" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B307" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -24678,10 +24659,10 @@
     </row>
     <row r="308" spans="1:25">
       <c r="A308" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B308" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -24752,10 +24733,10 @@
     </row>
     <row r="309" spans="1:25">
       <c r="A309" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B309" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -24826,10 +24807,10 @@
     </row>
     <row r="310" spans="1:25">
       <c r="A310" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B310" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -24900,10 +24881,10 @@
     </row>
     <row r="311" spans="1:25">
       <c r="A311" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B311" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -24974,10 +24955,10 @@
     </row>
     <row r="312" spans="1:25">
       <c r="A312" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B312" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -25048,10 +25029,10 @@
     </row>
     <row r="313" spans="1:25">
       <c r="A313" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B313" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -25122,10 +25103,10 @@
     </row>
     <row r="314" spans="1:25">
       <c r="A314" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B314" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -25196,10 +25177,10 @@
     </row>
     <row r="315" spans="1:25">
       <c r="A315" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B315" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -25270,10 +25251,10 @@
     </row>
     <row r="316" spans="1:25">
       <c r="A316" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B316" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -25344,10 +25325,10 @@
     </row>
     <row r="317" spans="1:25">
       <c r="A317" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B317" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -25418,10 +25399,10 @@
     </row>
     <row r="318" spans="1:25">
       <c r="A318" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B318" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -25492,10 +25473,10 @@
     </row>
     <row r="319" spans="1:25">
       <c r="A319" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B319" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -25566,10 +25547,10 @@
     </row>
     <row r="320" spans="1:25">
       <c r="A320" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B320" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -25640,10 +25621,10 @@
     </row>
     <row r="321" spans="1:25">
       <c r="A321" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B321" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -25714,10 +25695,10 @@
     </row>
     <row r="322" spans="1:25">
       <c r="A322" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B322" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -25788,10 +25769,10 @@
     </row>
     <row r="323" spans="1:25">
       <c r="A323" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B323" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -25862,10 +25843,10 @@
     </row>
     <row r="324" spans="1:25">
       <c r="A324" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B324" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -25889,13 +25870,13 @@
         <v>26</v>
       </c>
       <c r="K324" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="L324" t="s">
-        <v>499</v>
+        <v>262</v>
       </c>
       <c r="M324" t="s">
-        <v>500</v>
+        <v>262</v>
       </c>
       <c r="N324" t="s">
         <v>26</v>
@@ -25936,10 +25917,10 @@
     </row>
     <row r="325" spans="1:25">
       <c r="A325" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B325" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -26010,10 +25991,10 @@
     </row>
     <row r="326" spans="1:25">
       <c r="A326" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B326" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -26084,7 +26065,7 @@
     </row>
     <row r="327" spans="1:25">
       <c r="A327" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B327" t="s">
         <v>36</v>
@@ -26098,7 +26079,7 @@
     </row>
     <row r="328" spans="1:25">
       <c r="A328" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B328" t="s">
         <v>47</v>
@@ -26112,7 +26093,7 @@
     </row>
     <row r="329" spans="1:25">
       <c r="A329" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B329" t="s">
         <v>53</v>
@@ -26126,7 +26107,7 @@
     </row>
     <row r="330" spans="1:25">
       <c r="A330" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B330" t="s">
         <v>59</v>
@@ -26140,7 +26121,7 @@
     </row>
     <row r="331" spans="1:25">
       <c r="A331" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B331" t="s">
         <v>65</v>
@@ -26154,7 +26135,7 @@
     </row>
     <row r="332" spans="1:25">
       <c r="A332" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B332" t="s">
         <v>74</v>
@@ -26168,7 +26149,7 @@
     </row>
     <row r="333" spans="1:25">
       <c r="A333" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B333" t="s">
         <v>78</v>
@@ -26182,7 +26163,7 @@
     </row>
     <row r="334" spans="1:25">
       <c r="A334" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B334" t="s">
         <v>78</v>
@@ -26196,7 +26177,7 @@
     </row>
     <row r="335" spans="1:25">
       <c r="A335" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B335" t="s">
         <v>82</v>
@@ -26210,7 +26191,7 @@
     </row>
     <row r="336" spans="1:25">
       <c r="A336" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B336" t="s">
         <v>92</v>
@@ -26224,7 +26205,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B337" t="s">
         <v>94</v>
@@ -26238,7 +26219,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B338" t="s">
         <v>109</v>
@@ -26252,7 +26233,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B339" t="s">
         <v>111</v>
@@ -26266,7 +26247,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B340" t="s">
         <v>115</v>
@@ -26280,7 +26261,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B341" t="s">
         <v>117</v>
@@ -26294,7 +26275,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B342" t="s">
         <v>130</v>
@@ -26308,7 +26289,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B343" t="s">
         <v>133</v>
@@ -26322,7 +26303,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B344" t="s">
         <v>136</v>
@@ -26336,7 +26317,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B345" t="s">
         <v>141</v>
@@ -26350,7 +26331,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B346" t="s">
         <v>144</v>
@@ -26364,7 +26345,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B347" t="s">
         <v>144</v>
@@ -26373,12 +26354,12 @@
         <v>1</v>
       </c>
       <c r="D347" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B348" t="s">
         <v>148</v>
@@ -26392,7 +26373,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B349" t="s">
         <v>155</v>
@@ -26406,7 +26387,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B350" t="s">
         <v>157</v>
@@ -26420,7 +26401,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B351" t="s">
         <v>160</v>
@@ -26434,7 +26415,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B352" t="s">
         <v>165</v>
@@ -26448,7 +26429,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B353" t="s">
         <v>176</v>
@@ -26462,7 +26443,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B354" t="s">
         <v>179</v>
@@ -26471,12 +26452,12 @@
         <v>1</v>
       </c>
       <c r="D354" t="s">
-        <v>510</v>
+        <v>131</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B355" t="s">
         <v>180</v>
@@ -26490,7 +26471,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B356" t="s">
         <v>183</v>
@@ -26504,7 +26485,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B357" t="s">
         <v>185</v>
@@ -26518,7 +26499,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B358" t="s">
         <v>185</v>
@@ -26527,12 +26508,12 @@
         <v>1</v>
       </c>
       <c r="D358" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B359" t="s">
         <v>190</v>
@@ -26546,7 +26527,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B360" t="s">
         <v>198</v>
@@ -26560,7 +26541,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B361" t="s">
         <v>201</v>
@@ -26574,7 +26555,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B362" t="s">
         <v>204</v>
@@ -26588,7 +26569,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B363" t="s">
         <v>209</v>
@@ -26602,7 +26583,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B364" t="s">
         <v>218</v>
@@ -26616,7 +26597,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B365" t="s">
         <v>226</v>
@@ -26630,7 +26611,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B366" t="s">
         <v>230</v>
@@ -26644,7 +26625,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B367" t="s">
         <v>234</v>
@@ -26658,7 +26639,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B368" t="s">
         <v>257</v>
@@ -26672,7 +26653,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B369" t="s">
         <v>259</v>
@@ -26686,7 +26667,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B370" t="s">
         <v>263</v>
@@ -26700,7 +26681,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B371" t="s">
         <v>264</v>
@@ -26714,7 +26695,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B372" t="s">
         <v>274</v>
@@ -26728,7 +26709,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B373" t="s">
         <v>274</v>
@@ -26742,7 +26723,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B374" t="s">
         <v>278</v>
@@ -26756,7 +26737,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B375" t="s">
         <v>281</v>
@@ -26770,7 +26751,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B376" t="s">
         <v>285</v>
@@ -26784,7 +26765,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B377" t="s">
         <v>287</v>
@@ -26798,7 +26779,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B378" t="s">
         <v>301</v>
@@ -26812,7 +26793,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B379" t="s">
         <v>303</v>
@@ -26821,12 +26802,12 @@
         <v>1</v>
       </c>
       <c r="D379" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B380" t="s">
         <v>306</v>
@@ -26840,7 +26821,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B381" t="s">
         <v>309</v>
@@ -26854,7 +26835,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B382" t="s">
         <v>314</v>
@@ -26868,7 +26849,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B383" t="s">
         <v>318</v>
@@ -26882,7 +26863,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B384" t="s">
         <v>323</v>
@@ -26896,7 +26877,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B385" t="s">
         <v>328</v>
@@ -26910,7 +26891,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B386" t="s">
         <v>333</v>
@@ -26924,7 +26905,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B387" t="s">
         <v>334</v>
@@ -26938,7 +26919,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B388" t="s">
         <v>335</v>
@@ -26952,7 +26933,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B389" t="s">
         <v>336</v>
@@ -26966,7 +26947,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B390" t="s">
         <v>338</v>
@@ -26980,7 +26961,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B391" t="s">
         <v>341</v>
@@ -26994,7 +26975,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B392" t="s">
         <v>345</v>
@@ -27008,7 +26989,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B393" t="s">
         <v>347</v>
@@ -27022,7 +27003,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B394" t="s">
         <v>352</v>
@@ -27036,7 +27017,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B395" t="s">
         <v>359</v>
@@ -27050,7 +27031,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B396" t="s">
         <v>363</v>
@@ -27064,7 +27045,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B397" t="s">
         <v>368</v>
@@ -27078,7 +27059,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B398" t="s">
         <v>384</v>
@@ -27087,12 +27068,12 @@
         <v>1</v>
       </c>
       <c r="D398" t="s">
-        <v>511</v>
+        <v>37</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B399" t="s">
         <v>384</v>
@@ -27106,7 +27087,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B400" t="s">
         <v>388</v>
@@ -27120,7 +27101,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B401" t="s">
         <v>396</v>
@@ -27134,38 +27115,38 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B402" t="s">
+        <v>402</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402" t="s">
         <v>403</v>
-      </c>
-      <c r="C402">
-        <v>1</v>
-      </c>
-      <c r="D402" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B403" t="s">
+        <v>406</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403" t="s">
         <v>407</v>
-      </c>
-      <c r="C403">
-        <v>1</v>
-      </c>
-      <c r="D403" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B404" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -27176,66 +27157,66 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B405" t="s">
+        <v>409</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
         <v>410</v>
-      </c>
-      <c r="C405">
-        <v>1</v>
-      </c>
-      <c r="D405" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B406" t="s">
+        <v>413</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406" t="s">
         <v>414</v>
-      </c>
-      <c r="C406">
-        <v>1</v>
-      </c>
-      <c r="D406" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B407" t="s">
+        <v>424</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407" t="s">
         <v>425</v>
-      </c>
-      <c r="C407">
-        <v>1</v>
-      </c>
-      <c r="D407" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B408" t="s">
+        <v>428</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408" t="s">
         <v>429</v>
-      </c>
-      <c r="C408">
-        <v>1</v>
-      </c>
-      <c r="D408" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B409" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -27246,10 +27227,10 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B410" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -27260,10 +27241,10 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B411" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -27274,24 +27255,24 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B412" t="s">
+        <v>436</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412" t="s">
         <v>437</v>
-      </c>
-      <c r="C412">
-        <v>1</v>
-      </c>
-      <c r="D412" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B413" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -27302,38 +27283,38 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B414" t="s">
+        <v>440</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" t="s">
         <v>441</v>
-      </c>
-      <c r="C414">
-        <v>1</v>
-      </c>
-      <c r="D414" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B415" t="s">
+        <v>445</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
         <v>446</v>
-      </c>
-      <c r="C415">
-        <v>1</v>
-      </c>
-      <c r="D415" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B416" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -27344,10 +27325,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B417" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -27358,10 +27339,10 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B418" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -27372,38 +27353,38 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B419" t="s">
+        <v>477</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
         <v>478</v>
-      </c>
-      <c r="C419">
-        <v>1</v>
-      </c>
-      <c r="D419" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B420" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C420">
         <v>1</v>
       </c>
       <c r="D420" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B421" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -27414,10 +27395,10 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B422" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -27428,10 +27409,10 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B423" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -27442,24 +27423,23 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B424" t="s">
+        <v>492</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424" t="s">
         <v>493</v>
       </c>
-      <c r="C424">
-        <v>1</v>
-      </c>
-      <c r="D424" t="s">
-        <v>494</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="B2:Z425">
+  <sortState ref="A2:Z424">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>